--- a/assets/Estandares de aprendizaje.xlsx
+++ b/assets/Estandares de aprendizaje.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307AC804-AF0A-482C-8039-B9552B3D0194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BCFEF7-5F05-470D-843C-70CF08FA01AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{88789523-4A40-4C66-814D-58F0B149FCB7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{88789523-4A40-4C66-814D-58F0B149FCB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Generalidades" sheetId="2" r:id="rId1"/>
@@ -1250,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1317,6 +1317,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1751,7 +1754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB01F179-59A0-46CE-A3FE-2E0EACE39A9F}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -1886,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410B1BAC-B777-475D-A1A9-D0B80CCAA40E}">
   <dimension ref="A1:E184"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3659,27 +3662,29 @@
         <v>138</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="5"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3">
+    <row r="148" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="11"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12">
         <v>1</v>
       </c>
-      <c r="E148" s="6" t="s">
+      <c r="E148" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A149" s="5"/>
-      <c r="B149" s="4" t="s">
+      <c r="A149" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="B149" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C149" s="4"/>
-      <c r="D149" s="3">
+      <c r="C149" s="14"/>
+      <c r="D149" s="15">
         <v>7</v>
       </c>
-      <c r="E149" s="6" t="s">
+      <c r="E149" s="16" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3738,29 +3743,27 @@
         <v>168</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="25.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="11"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="12">
+    <row r="155" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A155" s="5"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3">
         <v>1</v>
       </c>
-      <c r="E155" s="13" t="s">
+      <c r="E155" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="69" x14ac:dyDescent="0.3">
-      <c r="A156" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="B156" s="32" t="s">
+      <c r="A156" s="5"/>
+      <c r="B156" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C156" s="32"/>
-      <c r="D156" s="15">
+      <c r="C156" s="36"/>
+      <c r="D156" s="3">
         <v>7</v>
       </c>
-      <c r="E156" s="16" t="s">
+      <c r="E156" s="6" t="s">
         <v>271</v>
       </c>
     </row>
@@ -3899,28 +3902,28 @@
       </c>
     </row>
     <row r="169" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="11"/>
-      <c r="B169" s="12"/>
-      <c r="C169" s="12"/>
-      <c r="D169" s="12">
+      <c r="A169" s="8"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9">
         <v>1</v>
       </c>
-      <c r="E169" s="13" t="s">
+      <c r="E169" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A170" s="28" t="s">
+      <c r="A170" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="B170" s="14" t="s">
+      <c r="B170" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C170" s="14"/>
-      <c r="D170" s="15">
+      <c r="C170" s="30"/>
+      <c r="D170" s="29">
         <v>7</v>
       </c>
-      <c r="E170" s="16" t="s">
+      <c r="E170" s="34" t="s">
         <v>272</v>
       </c>
     </row>

--- a/assets/Estandares de aprendizaje.xlsx
+++ b/assets/Estandares de aprendizaje.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BCFEF7-5F05-470D-843C-70CF08FA01AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1793A3F-8BB7-4ECE-807C-C59A078FAF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{88789523-4A40-4C66-814D-58F0B149FCB7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{88789523-4A40-4C66-814D-58F0B149FCB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Generalidades" sheetId="2" r:id="rId1"/>
@@ -1889,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410B1BAC-B777-475D-A1A9-D0B80CCAA40E}">
   <dimension ref="A1:E184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3662,29 +3662,27 @@
         <v>138</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="11"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="12"/>
-      <c r="D148" s="12">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="5"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3">
         <v>1</v>
       </c>
-      <c r="E148" s="13" t="s">
+      <c r="E148" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A149" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="B149" s="14" t="s">
+      <c r="A149" s="5"/>
+      <c r="B149" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C149" s="14"/>
-      <c r="D149" s="15">
+      <c r="C149" s="4"/>
+      <c r="D149" s="3">
         <v>7</v>
       </c>
-      <c r="E149" s="16" t="s">
+      <c r="E149" s="6" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3743,27 +3741,29 @@
         <v>168</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A155" s="5"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3">
+    <row r="155" spans="1:5" ht="25.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="11"/>
+      <c r="B155" s="12"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12">
         <v>1</v>
       </c>
-      <c r="E155" s="6" t="s">
+      <c r="E155" s="13" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="69" x14ac:dyDescent="0.3">
-      <c r="A156" s="5"/>
-      <c r="B156" s="36" t="s">
+      <c r="A156" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="B156" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C156" s="36"/>
-      <c r="D156" s="3">
+      <c r="C156" s="32"/>
+      <c r="D156" s="15">
         <v>7</v>
       </c>
-      <c r="E156" s="6" t="s">
+      <c r="E156" s="16" t="s">
         <v>271</v>
       </c>
     </row>
@@ -3902,28 +3902,28 @@
       </c>
     </row>
     <row r="169" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="8"/>
-      <c r="B169" s="9"/>
-      <c r="C169" s="9"/>
-      <c r="D169" s="9">
+      <c r="A169" s="11"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12">
         <v>1</v>
       </c>
-      <c r="E169" s="10" t="s">
+      <c r="E169" s="13" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A170" s="33" t="s">
+      <c r="A170" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="B170" s="30" t="s">
+      <c r="B170" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C170" s="30"/>
-      <c r="D170" s="29">
+      <c r="C170" s="14"/>
+      <c r="D170" s="15">
         <v>7</v>
       </c>
-      <c r="E170" s="34" t="s">
+      <c r="E170" s="16" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4085,8 +4085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A632A6FB-2A72-4B1E-B1D9-394BB1DAB718}">
   <dimension ref="A1:E184"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5856,27 +5856,29 @@
         <v>138</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="5"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3">
+    <row r="148" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="11"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12">
         <v>1</v>
       </c>
-      <c r="E148" s="6" t="s">
+      <c r="E148" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A149" s="5"/>
-      <c r="B149" s="4" t="s">
+      <c r="A149" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="B149" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C149" s="4"/>
-      <c r="D149" s="3">
+      <c r="C149" s="14"/>
+      <c r="D149" s="15">
         <v>7</v>
       </c>
-      <c r="E149" s="6" t="s">
+      <c r="E149" s="16" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5935,29 +5937,27 @@
         <v>168</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="25.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="11"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="12">
+    <row r="155" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A155" s="5"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3">
         <v>1</v>
       </c>
-      <c r="E155" s="13" t="s">
+      <c r="E155" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="69" x14ac:dyDescent="0.3">
-      <c r="A156" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="B156" s="32" t="s">
+      <c r="A156" s="5"/>
+      <c r="B156" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C156" s="32"/>
-      <c r="D156" s="15">
+      <c r="C156" s="36"/>
+      <c r="D156" s="3">
         <v>7</v>
       </c>
-      <c r="E156" s="16" t="s">
+      <c r="E156" s="6" t="s">
         <v>271</v>
       </c>
     </row>
@@ -6096,28 +6096,28 @@
       </c>
     </row>
     <row r="169" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="11"/>
-      <c r="B169" s="12"/>
-      <c r="C169" s="12"/>
-      <c r="D169" s="12">
+      <c r="A169" s="8"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9">
         <v>1</v>
       </c>
-      <c r="E169" s="13" t="s">
+      <c r="E169" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A170" s="28" t="s">
+      <c r="A170" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="B170" s="14" t="s">
+      <c r="B170" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C170" s="14"/>
-      <c r="D170" s="15">
+      <c r="C170" s="30"/>
+      <c r="D170" s="29">
         <v>7</v>
       </c>
-      <c r="E170" s="16" t="s">
+      <c r="E170" s="34" t="s">
         <v>272</v>
       </c>
     </row>

--- a/assets/Estandares de aprendizaje.xlsx
+++ b/assets/Estandares de aprendizaje.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1793A3F-8BB7-4ECE-807C-C59A078FAF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D211552-8651-4DBB-BCDD-55E593BA6811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{88789523-4A40-4C66-814D-58F0B149FCB7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{88789523-4A40-4C66-814D-58F0B149FCB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Generalidades" sheetId="2" r:id="rId1"/>
@@ -1250,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1307,9 +1307,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1889,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410B1BAC-B777-475D-A1A9-D0B80CCAA40E}">
   <dimension ref="A1:E184"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3662,27 +3659,29 @@
         <v>138</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="5"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3">
+    <row r="148" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="11"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12">
         <v>1</v>
       </c>
-      <c r="E148" s="6" t="s">
+      <c r="E148" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A149" s="5"/>
-      <c r="B149" s="4" t="s">
+      <c r="A149" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="B149" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C149" s="4"/>
-      <c r="D149" s="3">
+      <c r="C149" s="14"/>
+      <c r="D149" s="15">
         <v>7</v>
       </c>
-      <c r="E149" s="6" t="s">
+      <c r="E149" s="16" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3741,29 +3740,27 @@
         <v>168</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="25.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="11"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="12">
+    <row r="155" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A155" s="5"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3">
         <v>1</v>
       </c>
-      <c r="E155" s="13" t="s">
+      <c r="E155" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="69" x14ac:dyDescent="0.3">
-      <c r="A156" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="B156" s="32" t="s">
+      <c r="A156" s="5"/>
+      <c r="B156" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C156" s="32"/>
-      <c r="D156" s="15">
+      <c r="C156" s="35"/>
+      <c r="D156" s="3">
         <v>7</v>
       </c>
-      <c r="E156" s="16" t="s">
+      <c r="E156" s="6" t="s">
         <v>271</v>
       </c>
     </row>
@@ -3902,28 +3899,28 @@
       </c>
     </row>
     <row r="169" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="11"/>
-      <c r="B169" s="12"/>
-      <c r="C169" s="12"/>
-      <c r="D169" s="12">
+      <c r="A169" s="8"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9">
         <v>1</v>
       </c>
-      <c r="E169" s="13" t="s">
+      <c r="E169" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A170" s="28" t="s">
+      <c r="A170" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="B170" s="14" t="s">
+      <c r="B170" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C170" s="14"/>
-      <c r="D170" s="15">
+      <c r="C170" s="30"/>
+      <c r="D170" s="29">
         <v>7</v>
       </c>
-      <c r="E170" s="16" t="s">
+      <c r="E170" s="33" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4085,7 +4082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A632A6FB-2A72-4B1E-B1D9-394BB1DAB718}">
   <dimension ref="A1:E184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A143" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
@@ -4293,7 +4290,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
@@ -4546,7 +4543,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="32" t="s">
         <v>218</v>
       </c>
       <c r="B37" s="30" t="s">
@@ -4556,7 +4553,7 @@
       <c r="D37" s="29">
         <v>7</v>
       </c>
-      <c r="E37" s="34" t="s">
+      <c r="E37" s="33" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5950,10 +5947,10 @@
     </row>
     <row r="156" spans="1:5" ht="69" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
-      <c r="B156" s="36" t="s">
+      <c r="B156" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C156" s="36"/>
+      <c r="C156" s="35"/>
       <c r="D156" s="3">
         <v>7</v>
       </c>
@@ -6107,7 +6104,7 @@
       </c>
     </row>
     <row r="170" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A170" s="33" t="s">
+      <c r="A170" s="32" t="s">
         <v>275</v>
       </c>
       <c r="B170" s="30" t="s">
@@ -6117,7 +6114,7 @@
       <c r="D170" s="29">
         <v>7</v>
       </c>
-      <c r="E170" s="34" t="s">
+      <c r="E170" s="33" t="s">
         <v>272</v>
       </c>
     </row>

--- a/assets/Estandares de aprendizaje.xlsx
+++ b/assets/Estandares de aprendizaje.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D211552-8651-4DBB-BCDD-55E593BA6811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1477A8-4BC4-46F9-8685-27D020A49E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{88789523-4A40-4C66-814D-58F0B149FCB7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{88789523-4A40-4C66-814D-58F0B149FCB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Generalidades" sheetId="2" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>Ciclo</t>
   </si>
   <si>
-    <t>DESCRIPCIÓN DE LOS NIVELES DEL DESARROLLO  DE LA COMPETENCIA</t>
-  </si>
-  <si>
     <t>Construye su identidad al tomar conciencia de los aspectos que lo hacen único, cuando se reconoce a sí mismo a partir de sus características personales, sus capacidades y limitaciones reconociendo el papel de las familias en la formación de dichas características. Aprecia su pertenencia cultural a un país diverso. Explica las causas y consecuencias de sus emociones, y utiliza estrategias para regularlas. Manifiesta su punto de vista frente a situaciones de conflicto moral, en función de cómo estas le afectan a él o a los demás. Examina sus acciones en situaciones de conflicto moral que se presentan en la vida cotidiana y se plantea comportamientos que tomen en cuenta principios éticos. Establece relaciones de igualdad entre hombres y mujeres, y explica su importancia. Crea vínculos afectivos positivos y se sobrepone cuando estos cambian. Identifica conductas para protegerse de situaciones que ponen en riesgo su integridad en relación a su sexualidad.</t>
   </si>
   <si>
@@ -905,6 +902,9 @@
   </si>
   <si>
     <t>Personal Social</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN DE LOS NIVELES DEL DESARROLLO DE LA COMPETENCIA</t>
   </si>
 </sst>
 </file>
@@ -1646,100 +1646,100 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>265</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -1762,10 +1762,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>248</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1773,19 +1773,19 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1793,13 +1793,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1807,13 +1807,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1821,13 +1821,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1835,13 +1835,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1849,19 +1849,19 @@
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1886,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410B1BAC-B777-475D-A1A9-D0B80CCAA40E}">
   <dimension ref="A1:E184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1900,43 +1900,43 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>4</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" s="15">
         <v>7</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D3" s="3">
         <v>6</v>
@@ -1949,26 +1949,26 @@
       <c r="A4" s="5"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D4" s="3">
         <v>5</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -1979,7 +1979,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -1990,7 +1990,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -2001,74 +2001,74 @@
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D9" s="3">
         <v>7</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D10" s="3">
         <v>6</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D11" s="3">
         <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -2079,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2090,50 +2090,50 @@
         <v>1</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" s="15">
         <v>7</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -2144,7 +2144,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -2155,7 +2155,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2166,7 +2166,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2177,48 +2177,48 @@
         <v>1</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D23" s="3">
         <v>7</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D24" s="3">
         <v>6</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D25" s="3">
         <v>5</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -2229,7 +2229,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -2240,7 +2240,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2251,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2262,35 +2262,35 @@
         <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D30" s="3">
         <v>7</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D31" s="3">
         <v>6</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -2301,7 +2301,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -2312,7 +2312,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -2323,7 +2323,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -2334,7 +2334,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2345,22 +2345,22 @@
         <v>1</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="15">
         <v>7</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
@@ -2371,7 +2371,7 @@
         <v>6</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -2382,7 +2382,7 @@
         <v>5</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -2393,7 +2393,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -2404,7 +2404,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2427,32 +2427,32 @@
     </row>
     <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D44" s="15">
         <v>7</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D45" s="3">
         <v>6</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -2463,7 +2463,7 @@
         <v>5</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -2474,7 +2474,7 @@
         <v>4</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -2485,7 +2485,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -2496,7 +2496,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -2507,35 +2507,35 @@
         <v>1</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D51" s="3">
         <v>7</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D52" s="3">
         <v>6</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
@@ -2546,7 +2546,7 @@
         <v>5</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -2557,7 +2557,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -2568,7 +2568,7 @@
         <v>3</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2579,7 +2579,7 @@
         <v>2</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2590,35 +2590,35 @@
         <v>1</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D58" s="3">
         <v>7</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="3"/>
       <c r="C59" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D59" s="3">
         <v>6</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -2629,7 +2629,7 @@
         <v>5</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -2640,7 +2640,7 @@
         <v>4</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -2651,7 +2651,7 @@
         <v>3</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2662,7 +2662,7 @@
         <v>2</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2673,89 +2673,89 @@
         <v>1</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A65" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="14" t="s">
         <v>228</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>229</v>
       </c>
       <c r="D65" s="15">
         <v>7</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="3"/>
       <c r="C66" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D66" s="3">
         <v>6</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="3"/>
       <c r="C67" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D67" s="3">
         <v>5</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="3"/>
       <c r="C68" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D68" s="3">
         <v>4</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="3"/>
       <c r="C69" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D69" s="3">
         <v>3</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="3"/>
       <c r="C70" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D70" s="3">
         <v>2</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -2766,48 +2766,48 @@
         <v>1</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D72" s="3">
         <v>7</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D73" s="3">
         <v>6</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D74" s="3">
         <v>5</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -2818,7 +2818,7 @@
         <v>4</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -2829,7 +2829,7 @@
         <v>3</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -2840,7 +2840,7 @@
         <v>2</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2851,61 +2851,61 @@
         <v>1</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D79" s="3">
         <v>7</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="3"/>
       <c r="C80" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D80" s="3">
         <v>6</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="3"/>
       <c r="C81" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D81" s="3">
         <v>5</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="3"/>
       <c r="C82" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D82" s="3">
         <v>4</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -2916,7 +2916,7 @@
         <v>3</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -2927,7 +2927,7 @@
         <v>2</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2938,50 +2938,50 @@
         <v>1</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A86" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" s="14" t="s">
         <v>221</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>222</v>
       </c>
       <c r="D86" s="15">
         <v>7</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="3"/>
       <c r="C87" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D87" s="3">
         <v>6</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="3"/>
       <c r="C88" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D88" s="3">
         <v>5</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -2992,7 +2992,7 @@
         <v>4</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -3003,7 +3003,7 @@
         <v>3</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -3014,7 +3014,7 @@
         <v>2</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -3025,48 +3025,48 @@
         <v>1</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D93" s="3">
         <v>7</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="3"/>
       <c r="C94" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D94" s="3">
         <v>6</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="3"/>
       <c r="C95" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D95" s="3">
         <v>5</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -3077,7 +3077,7 @@
         <v>4</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -3088,7 +3088,7 @@
         <v>3</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -3099,7 +3099,7 @@
         <v>2</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3110,22 +3110,22 @@
         <v>1</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A100" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C100" s="14"/>
       <c r="D100" s="15">
         <v>7</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -3136,7 +3136,7 @@
         <v>6</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -3147,7 +3147,7 @@
         <v>5</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -3158,7 +3158,7 @@
         <v>4</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -3169,7 +3169,7 @@
         <v>3</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -3180,7 +3180,7 @@
         <v>2</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -3191,20 +3191,20 @@
         <v>1</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="3">
         <v>7</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -3215,7 +3215,7 @@
         <v>6</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -3226,7 +3226,7 @@
         <v>5</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -3237,7 +3237,7 @@
         <v>4</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -3248,7 +3248,7 @@
         <v>3</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -3259,7 +3259,7 @@
         <v>2</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -3270,20 +3270,20 @@
         <v>1</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="3">
         <v>7</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -3294,7 +3294,7 @@
         <v>6</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -3305,7 +3305,7 @@
         <v>5</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -3316,7 +3316,7 @@
         <v>4</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -3327,7 +3327,7 @@
         <v>3</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -3338,7 +3338,7 @@
         <v>2</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3349,22 +3349,22 @@
         <v>1</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="84.6" x14ac:dyDescent="0.3">
       <c r="A121" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C121" s="14"/>
       <c r="D121" s="15">
         <v>7</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="84.6" x14ac:dyDescent="0.3">
@@ -3375,7 +3375,7 @@
         <v>6</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
@@ -3386,7 +3386,7 @@
         <v>5</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
@@ -3397,7 +3397,7 @@
         <v>4</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -3408,7 +3408,7 @@
         <v>3</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -3419,7 +3419,7 @@
         <v>2</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -3430,20 +3430,20 @@
         <v>1</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="84.6" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="3">
         <v>7</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
@@ -3454,7 +3454,7 @@
         <v>6</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
@@ -3465,7 +3465,7 @@
         <v>5</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -3476,7 +3476,7 @@
         <v>4</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -3487,7 +3487,7 @@
         <v>3</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -3498,7 +3498,7 @@
         <v>2</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -3509,20 +3509,20 @@
         <v>1</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="3">
         <v>7</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
@@ -3533,7 +3533,7 @@
         <v>6</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="72.599999999999994" x14ac:dyDescent="0.3">
@@ -3544,7 +3544,7 @@
         <v>5</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
@@ -3555,7 +3555,7 @@
         <v>4</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -3566,7 +3566,7 @@
         <v>3</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -3577,7 +3577,7 @@
         <v>2</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -3588,20 +3588,20 @@
         <v>1</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="3">
         <v>7</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
@@ -3612,7 +3612,7 @@
         <v>6</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -3623,7 +3623,7 @@
         <v>5</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -3634,7 +3634,7 @@
         <v>4</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -3645,7 +3645,7 @@
         <v>3</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -3656,7 +3656,7 @@
         <v>2</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3667,22 +3667,22 @@
         <v>1</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C149" s="14"/>
       <c r="D149" s="15">
         <v>7</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
@@ -3693,7 +3693,7 @@
         <v>6</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -3704,7 +3704,7 @@
         <v>5</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -3715,7 +3715,7 @@
         <v>4</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -3726,7 +3726,7 @@
         <v>3</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -3737,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -3748,20 +3748,20 @@
         <v>1</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="69" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C156" s="35"/>
       <c r="D156" s="3">
         <v>7</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -3772,7 +3772,7 @@
         <v>6</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -3783,7 +3783,7 @@
         <v>5</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -3794,7 +3794,7 @@
         <v>4</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -3805,7 +3805,7 @@
         <v>3</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -3816,7 +3816,7 @@
         <v>2</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -3827,20 +3827,20 @@
         <v>1</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="3">
         <v>7</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
@@ -3851,7 +3851,7 @@
         <v>6</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -3862,7 +3862,7 @@
         <v>5</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -3873,7 +3873,7 @@
         <v>4</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -3884,7 +3884,7 @@
         <v>3</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -3895,7 +3895,7 @@
         <v>2</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3906,22 +3906,22 @@
         <v>1</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A170" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B170" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C170" s="30"/>
       <c r="D170" s="29">
         <v>7</v>
       </c>
       <c r="E170" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -3932,7 +3932,7 @@
         <v>6</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -3943,7 +3943,7 @@
         <v>5</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -3954,7 +3954,7 @@
         <v>4</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -3965,7 +3965,7 @@
         <v>3</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -3976,7 +3976,7 @@
         <v>2</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -3987,20 +3987,20 @@
         <v>1</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="3">
         <v>7</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -4011,7 +4011,7 @@
         <v>6</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -4022,7 +4022,7 @@
         <v>5</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -4033,7 +4033,7 @@
         <v>4</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -4044,7 +4044,7 @@
         <v>3</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -4055,7 +4055,7 @@
         <v>2</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4066,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -4082,8 +4082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A632A6FB-2A72-4B1E-B1D9-394BB1DAB718}">
   <dimension ref="A1:E184"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4096,43 +4096,43 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>4</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" s="15">
         <v>7</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D3" s="3">
         <v>6</v>
@@ -4145,26 +4145,26 @@
       <c r="A4" s="5"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D4" s="3">
         <v>5</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -4175,7 +4175,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -4186,7 +4186,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -4197,74 +4197,74 @@
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D9" s="3">
         <v>7</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D10" s="3">
         <v>6</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D11" s="3">
         <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -4275,7 +4275,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -4286,48 +4286,48 @@
         <v>1</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A16" s="34"/>
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" s="3">
         <v>7</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -4338,7 +4338,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -4349,7 +4349,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -4360,7 +4360,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -4371,48 +4371,48 @@
         <v>1</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D23" s="3">
         <v>7</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D24" s="3">
         <v>6</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D25" s="3">
         <v>5</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -4423,7 +4423,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -4434,7 +4434,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -4445,7 +4445,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -4456,35 +4456,35 @@
         <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D30" s="3">
         <v>7</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D31" s="3">
         <v>6</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -4495,7 +4495,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -4506,7 +4506,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -4517,7 +4517,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -4528,7 +4528,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4539,22 +4539,22 @@
         <v>1</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A37" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="29">
         <v>7</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
@@ -4565,7 +4565,7 @@
         <v>6</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -4576,7 +4576,7 @@
         <v>5</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -4587,7 +4587,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -4598,7 +4598,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -4621,32 +4621,32 @@
     </row>
     <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D44" s="15">
         <v>7</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D45" s="3">
         <v>6</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -4657,7 +4657,7 @@
         <v>5</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -4668,7 +4668,7 @@
         <v>4</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -4679,7 +4679,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -4690,7 +4690,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -4701,35 +4701,35 @@
         <v>1</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D51" s="3">
         <v>7</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D52" s="3">
         <v>6</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
@@ -4740,7 +4740,7 @@
         <v>5</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -4751,7 +4751,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -4762,7 +4762,7 @@
         <v>3</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -4773,7 +4773,7 @@
         <v>2</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -4784,35 +4784,35 @@
         <v>1</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D58" s="3">
         <v>7</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="3"/>
       <c r="C59" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D59" s="3">
         <v>6</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -4823,7 +4823,7 @@
         <v>5</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -4834,7 +4834,7 @@
         <v>4</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -4845,7 +4845,7 @@
         <v>3</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -4856,7 +4856,7 @@
         <v>2</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4867,89 +4867,89 @@
         <v>1</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A65" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="14" t="s">
         <v>228</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>229</v>
       </c>
       <c r="D65" s="15">
         <v>7</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="3"/>
       <c r="C66" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D66" s="3">
         <v>6</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="3"/>
       <c r="C67" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D67" s="3">
         <v>5</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="3"/>
       <c r="C68" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D68" s="3">
         <v>4</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="3"/>
       <c r="C69" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D69" s="3">
         <v>3</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="3"/>
       <c r="C70" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D70" s="3">
         <v>2</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -4960,48 +4960,48 @@
         <v>1</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D72" s="3">
         <v>7</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D73" s="3">
         <v>6</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D74" s="3">
         <v>5</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -5012,7 +5012,7 @@
         <v>4</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -5023,7 +5023,7 @@
         <v>3</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -5034,7 +5034,7 @@
         <v>2</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -5045,61 +5045,61 @@
         <v>1</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D79" s="3">
         <v>7</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="3"/>
       <c r="C80" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D80" s="3">
         <v>6</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="3"/>
       <c r="C81" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D81" s="3">
         <v>5</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="3"/>
       <c r="C82" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D82" s="3">
         <v>4</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -5110,7 +5110,7 @@
         <v>3</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -5121,7 +5121,7 @@
         <v>2</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5132,50 +5132,50 @@
         <v>1</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A86" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" s="14" t="s">
         <v>221</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>222</v>
       </c>
       <c r="D86" s="15">
         <v>7</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="3"/>
       <c r="C87" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D87" s="3">
         <v>6</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="3"/>
       <c r="C88" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D88" s="3">
         <v>5</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -5186,7 +5186,7 @@
         <v>4</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -5197,7 +5197,7 @@
         <v>3</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -5208,7 +5208,7 @@
         <v>2</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -5219,48 +5219,48 @@
         <v>1</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D93" s="3">
         <v>7</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="3"/>
       <c r="C94" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D94" s="3">
         <v>6</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="3"/>
       <c r="C95" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D95" s="3">
         <v>5</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -5271,7 +5271,7 @@
         <v>4</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -5282,7 +5282,7 @@
         <v>3</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -5293,7 +5293,7 @@
         <v>2</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5304,22 +5304,22 @@
         <v>1</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A100" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C100" s="14"/>
       <c r="D100" s="15">
         <v>7</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -5330,7 +5330,7 @@
         <v>6</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -5341,7 +5341,7 @@
         <v>5</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -5352,7 +5352,7 @@
         <v>4</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -5363,7 +5363,7 @@
         <v>3</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -5374,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -5385,20 +5385,20 @@
         <v>1</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="3">
         <v>7</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -5409,7 +5409,7 @@
         <v>6</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -5420,7 +5420,7 @@
         <v>5</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -5431,7 +5431,7 @@
         <v>4</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -5442,7 +5442,7 @@
         <v>3</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -5453,7 +5453,7 @@
         <v>2</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -5464,20 +5464,20 @@
         <v>1</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="3">
         <v>7</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -5488,7 +5488,7 @@
         <v>6</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -5499,7 +5499,7 @@
         <v>5</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -5510,7 +5510,7 @@
         <v>4</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -5521,7 +5521,7 @@
         <v>3</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -5532,7 +5532,7 @@
         <v>2</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5543,22 +5543,22 @@
         <v>1</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="84.6" x14ac:dyDescent="0.3">
       <c r="A121" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C121" s="14"/>
       <c r="D121" s="15">
         <v>7</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="84.6" x14ac:dyDescent="0.3">
@@ -5569,7 +5569,7 @@
         <v>6</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
@@ -5580,7 +5580,7 @@
         <v>5</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
@@ -5591,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -5602,7 +5602,7 @@
         <v>3</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -5613,7 +5613,7 @@
         <v>2</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -5624,20 +5624,20 @@
         <v>1</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="84.6" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="3">
         <v>7</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
@@ -5648,7 +5648,7 @@
         <v>6</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
@@ -5659,7 +5659,7 @@
         <v>5</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -5670,7 +5670,7 @@
         <v>4</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -5681,7 +5681,7 @@
         <v>3</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -5692,7 +5692,7 @@
         <v>2</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -5703,20 +5703,20 @@
         <v>1</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="3">
         <v>7</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
@@ -5727,7 +5727,7 @@
         <v>6</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="72.599999999999994" x14ac:dyDescent="0.3">
@@ -5738,7 +5738,7 @@
         <v>5</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
@@ -5749,7 +5749,7 @@
         <v>4</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -5760,7 +5760,7 @@
         <v>3</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -5771,7 +5771,7 @@
         <v>2</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -5782,20 +5782,20 @@
         <v>1</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="3">
         <v>7</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
@@ -5806,7 +5806,7 @@
         <v>6</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -5817,7 +5817,7 @@
         <v>5</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -5828,7 +5828,7 @@
         <v>4</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -5839,7 +5839,7 @@
         <v>3</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -5850,7 +5850,7 @@
         <v>2</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5861,22 +5861,22 @@
         <v>1</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C149" s="14"/>
       <c r="D149" s="15">
         <v>7</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
@@ -5887,7 +5887,7 @@
         <v>6</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -5898,7 +5898,7 @@
         <v>5</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -5909,7 +5909,7 @@
         <v>4</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -5920,7 +5920,7 @@
         <v>3</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -5931,7 +5931,7 @@
         <v>2</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -5942,20 +5942,20 @@
         <v>1</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="69" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C156" s="35"/>
       <c r="D156" s="3">
         <v>7</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -5966,7 +5966,7 @@
         <v>6</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -5977,7 +5977,7 @@
         <v>5</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -5988,7 +5988,7 @@
         <v>4</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -5999,7 +5999,7 @@
         <v>3</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -6010,7 +6010,7 @@
         <v>2</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -6021,20 +6021,20 @@
         <v>1</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="3">
         <v>7</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
@@ -6045,7 +6045,7 @@
         <v>6</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
@@ -6056,7 +6056,7 @@
         <v>5</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -6067,7 +6067,7 @@
         <v>4</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -6078,7 +6078,7 @@
         <v>3</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -6089,7 +6089,7 @@
         <v>2</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6100,22 +6100,22 @@
         <v>1</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A170" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B170" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C170" s="30"/>
       <c r="D170" s="29">
         <v>7</v>
       </c>
       <c r="E170" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -6126,7 +6126,7 @@
         <v>6</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -6137,7 +6137,7 @@
         <v>5</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -6148,7 +6148,7 @@
         <v>4</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -6159,7 +6159,7 @@
         <v>3</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -6170,7 +6170,7 @@
         <v>2</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -6181,20 +6181,20 @@
         <v>1</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="3">
         <v>7</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -6205,7 +6205,7 @@
         <v>6</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -6216,7 +6216,7 @@
         <v>5</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -6227,7 +6227,7 @@
         <v>4</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -6238,7 +6238,7 @@
         <v>3</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -6249,7 +6249,7 @@
         <v>2</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6260,7 +6260,7 @@
         <v>1</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">

--- a/assets/Estandares de aprendizaje.xlsx
+++ b/assets/Estandares de aprendizaje.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1477A8-4BC4-46F9-8685-27D020A49E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193A467B-67AF-423E-B271-EC0FBCE5F1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{88789523-4A40-4C66-814D-58F0B149FCB7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="326">
   <si>
     <t xml:space="preserve"> Construye su identidad al tomar conciencia de los aspectos que lo hacen único, cuando se reconoce a sí mismo a partir de sus características personales, culturales y sociales, y de sus logros, valorando el aporte de las familias en su formación personal. Se desenvuelve con agrado y confianza en diversos grupos. Selecciona y utiliza las estrategias más adecuadas para regular sus emociones y comportamiento, y comprende las razones de los comportamientos propios y de los otros. Argumenta su posición frente a situaciones de conflicto moral, considerando las intenciones de las personas involucradas, los principios éticos y las normas establecidas. Analiza las consecuencias de sus decisiones y se propone comportamientos en los que estén presentes criterios éticos. Se relaciona con igualdad o equidad y analiza críticamente situaciones de desigualdad de género en diferentes contextos. Demuestra respeto y cuidado por el otro en sus relaciones afectivas, y propone pautas para prevenir y protegerse de situaciones que afecten su integridad en relación a la salud sexual y reproductiva.</t>
   </si>
@@ -655,22 +655,6 @@
     <t>Vive su sexualidad de manera integral y responsable de acuerdo a su etapa de desarrollo y madurez</t>
   </si>
   <si>
-    <t xml:space="preserve">Interactúa con todas las personas.
-</t>
-  </si>
-  <si>
-    <t>Construye normas y asume acuerdos y leyes.</t>
-  </si>
-  <si>
-    <t>Maneja conflictos de manera constructiva.</t>
-  </si>
-  <si>
-    <t>Delibera sobre asuntos públicos.</t>
-  </si>
-  <si>
-    <t>Participa en acciones que promueven el bienestar común.</t>
-  </si>
-  <si>
     <t>Interpreta críticamente fuentes diversas</t>
   </si>
   <si>
@@ -747,13 +731,6 @@
     <t>Aplica procesos creativos</t>
   </si>
   <si>
-    <t>Evalúa y comunica sus procesos y proyectos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explora y experimenta los lenguajes artísticos. 
-</t>
-  </si>
-  <si>
     <t>Comunicación</t>
   </si>
   <si>
@@ -905,6 +882,182 @@
   </si>
   <si>
     <t>DESCRIPCIÓN DE LOS NIVELES DEL DESARROLLO DE LA COMPETENCIA</t>
+  </si>
+  <si>
+    <t>Resuelve problemas en los que modela características de objetos mediante prismas, pirámides y polígonos, sus elementos y propiedades, y la semejanza y congruencia de formas geométricas; así como la ubicación y movimiento mediante coordenadas en el plano cartesiano, mapas y planos a escala, y transformaciones. Expresa su comprensión de las formas congruentes y semejantes, la relación entre una forma geométrica y sus diferentes perspectivas; usando dibujos y construcciones. Clasifica prismas, pirámides y polígonos, según sus propiedades. Selecciona y emplea estrategias, procedimientos y recursos para determinar la longitud, área o volumen de formas geométricas en unidades convencionales y para construir formas geométricas a escala. Plantea afirmaciones sobre la semejanza y congruencia de formas, relaciones entre áreas de formas geométricas; las justifica mediante ejemplos y propiedades geométricas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Traduce datos y condiciones a expresiones algebraicas y gráficas 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunica su comprensión sobre las relaciones algebraicas. </t>
+  </si>
+  <si>
+    <t>Usa estrategias y procedimientos para encontrar equivalencias y reglas generales.</t>
+  </si>
+  <si>
+    <t>Argumenta afirmaciones sobre relaciones de cambio y equivalencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunica su comprensión sobre las formas y relaciones geométricas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modela objetos con formas geométricas y sus transformaciones
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usa estrategias y procedimientos para medir y orientarse en el espacio. </t>
+  </si>
+  <si>
+    <t>Argumenta afirmaciones sobre relaciones geométricas</t>
+  </si>
+  <si>
+    <t>Representa datos con gráficos y medidas estadísticas o probabilísticas</t>
+  </si>
+  <si>
+    <t>Comunica su comprensión de los conceptos estadísticos y probabilísticos</t>
+  </si>
+  <si>
+    <t>Usa estrategias y procedimientos para recopilar y procesar datos</t>
+  </si>
+  <si>
+    <t>Sustenta conclusiones o decisiones con base en la información obtenida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problematiza situaciones
+</t>
+  </si>
+  <si>
+    <t>Diseña estrategias para hacer indagación</t>
+  </si>
+  <si>
+    <t>Genera y registra datos e información</t>
+  </si>
+  <si>
+    <t>Analiza datos e información</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Evalúa y comunica el proceso y resultados de su indagación</t>
+  </si>
+  <si>
+    <t>Determina una alternativa de solución tecnológica</t>
+  </si>
+  <si>
+    <t>Diseña la alternativa de solución tecnológica</t>
+  </si>
+  <si>
+    <t>Implementa y valida la alternativa de solución tecnológica</t>
+  </si>
+  <si>
+    <t>Evalúa y comunica el funcionamiento y los impactos de su alternativa de solución tecnológica</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Construye su identidad como persona humana, amada por Dios, digna, libre y trascendente, comprendiendo la doctrina de su propia religión, abierto al diálogo con las que le son cercanas</t>
+  </si>
+  <si>
+    <t>Asume la experiencia del encuentro personal y comunitario con Dios en su proyecto de vida en coherencia con su creencia religiosa</t>
+  </si>
+  <si>
+    <t>Crea propuestas de valor</t>
+  </si>
+  <si>
+    <t>Trabaja cooperativamente para lograr objetivos y metas</t>
+  </si>
+  <si>
+    <t>Evalúa los resultados del proyecto de emprendimiento.</t>
+  </si>
+  <si>
+    <t>Aplica habilidades técnicas</t>
+  </si>
+  <si>
+    <t>Conoce a Dios y asume su identidad religiosa y espiritual como persona digna, libre y trascendente</t>
+  </si>
+  <si>
+    <t>Cultiva y valora las manifestaciones religiosas de su entorno argumentando su fe de manera comprensible y respetuosa.</t>
+  </si>
+  <si>
+    <t>Actúa coherentemente en razón de su fe según los principios de su conciencia moral en situaciones concretas de la vida.</t>
+  </si>
+  <si>
+    <t>Transforma su entorno desde el encuentro personal y comunitario con Dios y desde la fe que profesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adecúa el texto a la situación comunicativa
+</t>
+  </si>
+  <si>
+    <t>Organiza y desarrolla las ideas de forma coherente y cohesionada</t>
+  </si>
+  <si>
+    <t>Reflexiona y evalúa la forma, el contenido y el contexto del texto escrito</t>
+  </si>
+  <si>
+    <t>Obtiene información del texto escrito</t>
+  </si>
+  <si>
+    <t>Infiere e interpreta información del texto escrito</t>
+  </si>
+  <si>
+    <t>Obtiene información de textos orales</t>
+  </si>
+  <si>
+    <t>Infiere e interpreta información de textos orales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliza recursos no verbales y paraverbales de forma estratégica </t>
+  </si>
+  <si>
+    <t>Reflexiona y evalúa la forma, el contenido y el contexto del texto oral</t>
+  </si>
+  <si>
+    <t>Explora y experimenta los lenguajes artísticos</t>
+  </si>
+  <si>
+    <t>Evalúa y comunica sus procesos y proyectos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactúa con todas las personas
+</t>
+  </si>
+  <si>
+    <t>Construye normas y asume acuerdos y leyes</t>
+  </si>
+  <si>
+    <t>Maneja conflictos de manera constructiva</t>
+  </si>
+  <si>
+    <t>Delibera sobre asuntos públicos</t>
+  </si>
+  <si>
+    <t>Participa en acciones que promueven el bienestar común</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprende las relaciones entre los elementos del sistema económico y financiero
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Toma decisiones económicas y financieras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traduce cantidades a expresiones numéricas
+</t>
+  </si>
+  <si>
+    <t>Comunica su comprensión sobre los números y las operaciones</t>
+  </si>
+  <si>
+    <t>Usa estrategias y procedimientos de estimación y cálculo</t>
+  </si>
+  <si>
+    <t>Argumenta afirmaciones sobre las relaciones numéricas y las operaciones</t>
+  </si>
+  <si>
+    <t>Evalúa las implicancias del saber y del quehacer científico y tecnológico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprende y usa conocimientos sobre los seres vivos, materia y energía, biodiversidad, Tierra y universo
+</t>
   </si>
 </sst>
 </file>
@@ -956,7 +1109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1246,11 +1399,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1317,6 +1479,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1646,100 +1823,100 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="24" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="25" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="24" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="24" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="24" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="24" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="25" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="24" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="24" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="24" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="25" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -1762,10 +1939,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1773,19 +1950,19 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1793,13 +1970,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1807,13 +1984,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1821,13 +1998,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1835,13 +2012,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1849,19 +2026,19 @@
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1886,8 +2063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410B1BAC-B777-475D-A1A9-D0B80CCAA40E}">
   <dimension ref="A1:E184"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A174" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177:C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1900,7 +2077,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
@@ -1912,12 +2089,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>1</v>
@@ -2010,7 +2187,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D9" s="3">
         <v>7</v>
@@ -2023,7 +2200,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D10" s="3">
         <v>6</v>
@@ -2036,7 +2213,7 @@
       <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
-        <v>199</v>
+        <v>315</v>
       </c>
       <c r="D11" s="3">
         <v>5</v>
@@ -2049,7 +2226,7 @@
       <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
-        <v>200</v>
+        <v>316</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
@@ -2062,7 +2239,7 @@
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
-        <v>201</v>
+        <v>317</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -2095,13 +2272,13 @@
     </row>
     <row r="16" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D16" s="15">
         <v>7</v>
@@ -2114,7 +2291,7 @@
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
@@ -2127,7 +2304,7 @@
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
@@ -2186,7 +2363,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D23" s="3">
         <v>7</v>
@@ -2199,7 +2376,7 @@
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D24" s="3">
         <v>6</v>
@@ -2212,7 +2389,7 @@
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D25" s="3">
         <v>5</v>
@@ -2271,7 +2448,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D30" s="3">
         <v>7</v>
@@ -2284,7 +2461,7 @@
       <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D31" s="3">
         <v>6</v>
@@ -2350,12 +2527,14 @@
     </row>
     <row r="37" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="14"/>
+      <c r="C37" s="37" t="s">
+        <v>294</v>
+      </c>
       <c r="D37" s="15">
         <v>7</v>
       </c>
@@ -2366,7 +2545,9 @@
     <row r="38" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="C38" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="D38" s="3">
         <v>6</v>
       </c>
@@ -2377,7 +2558,9 @@
     <row r="39" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="C39" s="4" t="s">
+        <v>295</v>
+      </c>
       <c r="D39" s="3">
         <v>5</v>
       </c>
@@ -2388,7 +2571,9 @@
     <row r="40" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="C40" s="4" t="s">
+        <v>296</v>
+      </c>
       <c r="D40" s="3">
         <v>4</v>
       </c>
@@ -2417,23 +2602,23 @@
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9">
         <v>1</v>
       </c>
-      <c r="E43" s="13"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D44" s="15">
         <v>7</v>
@@ -2446,7 +2631,7 @@
       <c r="A45" s="5"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D45" s="3">
         <v>6</v>
@@ -2516,7 +2701,7 @@
         <v>30</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D51" s="3">
         <v>7</v>
@@ -2529,7 +2714,7 @@
       <c r="A52" s="5"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D52" s="3">
         <v>6</v>
@@ -2599,7 +2784,7 @@
         <v>31</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D58" s="3">
         <v>7</v>
@@ -2612,7 +2797,7 @@
       <c r="A59" s="5"/>
       <c r="B59" s="3"/>
       <c r="C59" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D59" s="3">
         <v>6</v>
@@ -2678,13 +2863,13 @@
     </row>
     <row r="65" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A65" s="28" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D65" s="15">
         <v>7</v>
@@ -2697,7 +2882,7 @@
       <c r="A66" s="5"/>
       <c r="B66" s="3"/>
       <c r="C66" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D66" s="3">
         <v>6</v>
@@ -2710,7 +2895,7 @@
       <c r="A67" s="5"/>
       <c r="B67" s="3"/>
       <c r="C67" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D67" s="3">
         <v>5</v>
@@ -2723,7 +2908,7 @@
       <c r="A68" s="5"/>
       <c r="B68" s="3"/>
       <c r="C68" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D68" s="3">
         <v>4</v>
@@ -2736,7 +2921,7 @@
       <c r="A69" s="5"/>
       <c r="B69" s="3"/>
       <c r="C69" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D69" s="3">
         <v>3</v>
@@ -2749,7 +2934,7 @@
       <c r="A70" s="5"/>
       <c r="B70" s="3"/>
       <c r="C70" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D70" s="3">
         <v>2</v>
@@ -2775,7 +2960,7 @@
         <v>33</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D72" s="3">
         <v>7</v>
@@ -2788,7 +2973,7 @@
       <c r="A73" s="5"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D73" s="3">
         <v>6</v>
@@ -2801,7 +2986,7 @@
       <c r="A74" s="5"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D74" s="3">
         <v>5</v>
@@ -2860,7 +3045,7 @@
         <v>34</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D79" s="3">
         <v>7</v>
@@ -2873,7 +3058,7 @@
       <c r="A80" s="5"/>
       <c r="B80" s="3"/>
       <c r="C80" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D80" s="3">
         <v>6</v>
@@ -2886,7 +3071,7 @@
       <c r="A81" s="5"/>
       <c r="B81" s="3"/>
       <c r="C81" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D81" s="3">
         <v>5</v>
@@ -2899,7 +3084,7 @@
       <c r="A82" s="5"/>
       <c r="B82" s="3"/>
       <c r="C82" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D82" s="3">
         <v>4</v>
@@ -2943,13 +3128,13 @@
     </row>
     <row r="86" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A86" s="28" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D86" s="15">
         <v>7</v>
@@ -2962,7 +3147,7 @@
       <c r="A87" s="5"/>
       <c r="B87" s="3"/>
       <c r="C87" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D87" s="3">
         <v>6</v>
@@ -2975,7 +3160,7 @@
       <c r="A88" s="5"/>
       <c r="B88" s="3"/>
       <c r="C88" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D88" s="3">
         <v>5</v>
@@ -3034,7 +3219,7 @@
         <v>36</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>226</v>
+        <v>311</v>
       </c>
       <c r="D93" s="3">
         <v>7</v>
@@ -3047,7 +3232,7 @@
       <c r="A94" s="5"/>
       <c r="B94" s="3"/>
       <c r="C94" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D94" s="3">
         <v>6</v>
@@ -3060,7 +3245,7 @@
       <c r="A95" s="5"/>
       <c r="B95" s="3"/>
       <c r="C95" s="4" t="s">
-        <v>225</v>
+        <v>312</v>
       </c>
       <c r="D95" s="3">
         <v>5</v>
@@ -3115,12 +3300,14 @@
     </row>
     <row r="100" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A100" s="28" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C100" s="14"/>
+      <c r="C100" s="14" t="s">
+        <v>307</v>
+      </c>
       <c r="D100" s="15">
         <v>7</v>
       </c>
@@ -3131,7 +3318,9 @@
     <row r="101" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
+      <c r="C101" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="D101" s="3">
         <v>6</v>
       </c>
@@ -3142,7 +3331,9 @@
     <row r="102" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
+      <c r="C102" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="D102" s="3">
         <v>5</v>
       </c>
@@ -3153,7 +3344,9 @@
     <row r="103" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
+      <c r="C103" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="D103" s="3">
         <v>4</v>
       </c>
@@ -3164,7 +3357,9 @@
     <row r="104" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
+      <c r="C104" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="D104" s="3">
         <v>3</v>
       </c>
@@ -3172,10 +3367,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
+      <c r="C105" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="D105" s="3">
         <v>2</v>
       </c>
@@ -3199,18 +3396,22 @@
       <c r="B107" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C107" s="4"/>
+      <c r="C107" s="40" t="s">
+        <v>305</v>
+      </c>
       <c r="D107" s="3">
         <v>7</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
+      <c r="C108" s="4" t="s">
+        <v>306</v>
+      </c>
       <c r="D108" s="3">
         <v>6</v>
       </c>
@@ -3218,15 +3419,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
+      <c r="C109" s="4" t="s">
+        <v>304</v>
+      </c>
       <c r="D109" s="3">
         <v>5</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -3278,7 +3481,9 @@
       <c r="B114" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C114" s="4"/>
+      <c r="C114" s="4" t="s">
+        <v>302</v>
+      </c>
       <c r="D114" s="3">
         <v>7</v>
       </c>
@@ -3289,7 +3494,9 @@
     <row r="115" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
+      <c r="C115" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="D115" s="3">
         <v>6</v>
       </c>
@@ -3300,7 +3507,9 @@
     <row r="116" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
+      <c r="C116" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="D116" s="3">
         <v>5</v>
       </c>
@@ -3308,10 +3517,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
+      <c r="C117" s="4" t="s">
+        <v>304</v>
+      </c>
       <c r="D117" s="3">
         <v>4</v>
       </c>
@@ -3342,24 +3553,26 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="11"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12">
+      <c r="A120" s="8"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9">
         <v>1</v>
       </c>
-      <c r="E120" s="13" t="s">
+      <c r="E120" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="84.6" x14ac:dyDescent="0.3">
       <c r="A121" s="31" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C121" s="14"/>
+      <c r="C121" s="14" t="s">
+        <v>320</v>
+      </c>
       <c r="D121" s="15">
         <v>7</v>
       </c>
@@ -3370,7 +3583,9 @@
     <row r="122" spans="1:5" ht="84.6" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
+      <c r="C122" s="4" t="s">
+        <v>321</v>
+      </c>
       <c r="D122" s="3">
         <v>6</v>
       </c>
@@ -3381,7 +3596,9 @@
     <row r="123" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
+      <c r="C123" s="4" t="s">
+        <v>322</v>
+      </c>
       <c r="D123" s="3">
         <v>5</v>
       </c>
@@ -3392,7 +3609,9 @@
     <row r="124" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
+      <c r="C124" s="4" t="s">
+        <v>323</v>
+      </c>
       <c r="D124" s="3">
         <v>4</v>
       </c>
@@ -3438,7 +3657,9 @@
       <c r="B128" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C128" s="4"/>
+      <c r="C128" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="D128" s="3">
         <v>7</v>
       </c>
@@ -3449,7 +3670,9 @@
     <row r="129" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
+      <c r="C129" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="D129" s="3">
         <v>6</v>
       </c>
@@ -3460,7 +3683,9 @@
     <row r="130" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
+      <c r="C130" s="4" t="s">
+        <v>273</v>
+      </c>
       <c r="D130" s="3">
         <v>5</v>
       </c>
@@ -3471,7 +3696,9 @@
     <row r="131" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
+      <c r="C131" s="4" t="s">
+        <v>274</v>
+      </c>
       <c r="D131" s="3">
         <v>4</v>
       </c>
@@ -3517,7 +3744,9 @@
       <c r="B135" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C135" s="4"/>
+      <c r="C135" s="4" t="s">
+        <v>276</v>
+      </c>
       <c r="D135" s="3">
         <v>7</v>
       </c>
@@ -3528,18 +3757,22 @@
     <row r="136" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
+      <c r="C136" s="4" t="s">
+        <v>275</v>
+      </c>
       <c r="D136" s="3">
         <v>6</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>151</v>
+        <v>270</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
+      <c r="C137" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="D137" s="3">
         <v>5</v>
       </c>
@@ -3550,7 +3783,9 @@
     <row r="138" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
+      <c r="C138" s="4" t="s">
+        <v>278</v>
+      </c>
       <c r="D138" s="3">
         <v>4</v>
       </c>
@@ -3596,7 +3831,9 @@
       <c r="B142" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C142" s="4"/>
+      <c r="C142" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="D142" s="3">
         <v>7</v>
       </c>
@@ -3607,7 +3844,9 @@
     <row r="143" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
+      <c r="C143" s="4" t="s">
+        <v>280</v>
+      </c>
       <c r="D143" s="3">
         <v>6</v>
       </c>
@@ -3618,7 +3857,9 @@
     <row r="144" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
+      <c r="C144" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="D144" s="3">
         <v>5</v>
       </c>
@@ -3626,10 +3867,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
+      <c r="C145" s="4" t="s">
+        <v>282</v>
+      </c>
       <c r="D145" s="3">
         <v>4</v>
       </c>
@@ -3672,12 +3915,14 @@
     </row>
     <row r="149" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="28" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B149" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C149" s="14"/>
+      <c r="C149" s="14" t="s">
+        <v>283</v>
+      </c>
       <c r="D149" s="15">
         <v>7</v>
       </c>
@@ -3688,7 +3933,9 @@
     <row r="150" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
+      <c r="C150" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="D150" s="3">
         <v>6</v>
       </c>
@@ -3699,7 +3946,9 @@
     <row r="151" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
+      <c r="C151" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="D151" s="3">
         <v>5</v>
       </c>
@@ -3710,7 +3959,9 @@
     <row r="152" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
+      <c r="C152" s="4" t="s">
+        <v>286</v>
+      </c>
       <c r="D152" s="3">
         <v>4</v>
       </c>
@@ -3718,10 +3969,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
+      <c r="C153" s="4" t="s">
+        <v>287</v>
+      </c>
       <c r="D153" s="3">
         <v>3</v>
       </c>
@@ -3756,18 +4009,22 @@
       <c r="B156" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C156" s="35"/>
+      <c r="C156" s="35" t="s">
+        <v>325</v>
+      </c>
       <c r="D156" s="3">
         <v>7</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
+      <c r="C157" s="4" t="s">
+        <v>324</v>
+      </c>
       <c r="D157" s="3">
         <v>6</v>
       </c>
@@ -3783,7 +4040,7 @@
         <v>5</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -3805,7 +4062,7 @@
         <v>3</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -3835,7 +4092,9 @@
       <c r="B163" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C163" s="4"/>
+      <c r="C163" s="36" t="s">
+        <v>288</v>
+      </c>
       <c r="D163" s="3">
         <v>7</v>
       </c>
@@ -3846,7 +4105,9 @@
     <row r="164" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
+      <c r="C164" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="D164" s="3">
         <v>6</v>
       </c>
@@ -3857,7 +4118,9 @@
     <row r="165" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
+      <c r="C165" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="D165" s="3">
         <v>5</v>
       </c>
@@ -3865,10 +4128,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
+      <c r="C166" s="4" t="s">
+        <v>291</v>
+      </c>
       <c r="D166" s="3">
         <v>4</v>
       </c>
@@ -3909,25 +4174,29 @@
         <v>172</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A170" s="32" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B170" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C170" s="30"/>
+        <v>292</v>
+      </c>
+      <c r="C170" s="38" t="s">
+        <v>298</v>
+      </c>
       <c r="D170" s="29">
         <v>7</v>
       </c>
-      <c r="E170" s="33" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="E170" s="39" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
+      <c r="C171" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="D171" s="3">
         <v>6</v>
       </c>
@@ -3993,24 +4262,28 @@
     <row r="177" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C177" s="4"/>
+        <v>293</v>
+      </c>
+      <c r="C177" s="20" t="s">
+        <v>301</v>
+      </c>
       <c r="D177" s="3">
         <v>7</v>
       </c>
-      <c r="E177" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="E177" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
+      <c r="C178" s="4" t="s">
+        <v>300</v>
+      </c>
       <c r="D178" s="3">
         <v>6</v>
       </c>
-      <c r="E178" s="6" t="s">
+      <c r="E178" s="7" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4082,8 +4355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A632A6FB-2A72-4B1E-B1D9-394BB1DAB718}">
   <dimension ref="A1:E184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4096,7 +4369,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
@@ -4108,12 +4381,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>1</v>
@@ -4206,7 +4479,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D9" s="3">
         <v>7</v>
@@ -4219,7 +4492,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D10" s="3">
         <v>6</v>
@@ -4232,7 +4505,7 @@
       <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
-        <v>199</v>
+        <v>315</v>
       </c>
       <c r="D11" s="3">
         <v>5</v>
@@ -4245,7 +4518,7 @@
       <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
-        <v>200</v>
+        <v>316</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
@@ -4258,7 +4531,7 @@
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
-        <v>201</v>
+        <v>317</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -4295,7 +4568,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D16" s="3">
         <v>7</v>
@@ -4308,7 +4581,7 @@
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
@@ -4321,7 +4594,7 @@
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
@@ -4380,7 +4653,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D23" s="3">
         <v>7</v>
@@ -4393,7 +4666,7 @@
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D24" s="3">
         <v>6</v>
@@ -4406,7 +4679,7 @@
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D25" s="3">
         <v>5</v>
@@ -4465,7 +4738,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>205</v>
+        <v>318</v>
       </c>
       <c r="D30" s="3">
         <v>7</v>
@@ -4478,7 +4751,7 @@
       <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4" t="s">
-        <v>206</v>
+        <v>319</v>
       </c>
       <c r="D31" s="3">
         <v>6</v>
@@ -4544,12 +4817,14 @@
     </row>
     <row r="37" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A37" s="32" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="30"/>
+      <c r="C37" s="37" t="s">
+        <v>294</v>
+      </c>
       <c r="D37" s="29">
         <v>7</v>
       </c>
@@ -4560,7 +4835,9 @@
     <row r="38" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="C38" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="D38" s="3">
         <v>6</v>
       </c>
@@ -4571,7 +4848,9 @@
     <row r="39" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="C39" s="4" t="s">
+        <v>295</v>
+      </c>
       <c r="D39" s="3">
         <v>5</v>
       </c>
@@ -4582,7 +4861,9 @@
     <row r="40" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="C40" s="4" t="s">
+        <v>296</v>
+      </c>
       <c r="D40" s="3">
         <v>4</v>
       </c>
@@ -4621,13 +4902,13 @@
     </row>
     <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D44" s="15">
         <v>7</v>
@@ -4640,7 +4921,7 @@
       <c r="A45" s="5"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D45" s="3">
         <v>6</v>
@@ -4710,7 +4991,7 @@
         <v>30</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D51" s="3">
         <v>7</v>
@@ -4723,7 +5004,7 @@
       <c r="A52" s="5"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D52" s="3">
         <v>6</v>
@@ -4793,7 +5074,7 @@
         <v>31</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D58" s="3">
         <v>7</v>
@@ -4806,7 +5087,7 @@
       <c r="A59" s="5"/>
       <c r="B59" s="3"/>
       <c r="C59" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D59" s="3">
         <v>6</v>
@@ -4872,13 +5153,13 @@
     </row>
     <row r="65" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A65" s="28" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D65" s="15">
         <v>7</v>
@@ -4891,7 +5172,7 @@
       <c r="A66" s="5"/>
       <c r="B66" s="3"/>
       <c r="C66" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D66" s="3">
         <v>6</v>
@@ -4904,7 +5185,7 @@
       <c r="A67" s="5"/>
       <c r="B67" s="3"/>
       <c r="C67" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D67" s="3">
         <v>5</v>
@@ -4917,7 +5198,7 @@
       <c r="A68" s="5"/>
       <c r="B68" s="3"/>
       <c r="C68" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D68" s="3">
         <v>4</v>
@@ -4930,7 +5211,7 @@
       <c r="A69" s="5"/>
       <c r="B69" s="3"/>
       <c r="C69" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D69" s="3">
         <v>3</v>
@@ -4943,7 +5224,7 @@
       <c r="A70" s="5"/>
       <c r="B70" s="3"/>
       <c r="C70" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D70" s="3">
         <v>2</v>
@@ -4969,7 +5250,7 @@
         <v>33</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D72" s="3">
         <v>7</v>
@@ -4982,7 +5263,7 @@
       <c r="A73" s="5"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D73" s="3">
         <v>6</v>
@@ -4995,7 +5276,7 @@
       <c r="A74" s="5"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D74" s="3">
         <v>5</v>
@@ -5054,7 +5335,7 @@
         <v>34</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D79" s="3">
         <v>7</v>
@@ -5067,7 +5348,7 @@
       <c r="A80" s="5"/>
       <c r="B80" s="3"/>
       <c r="C80" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D80" s="3">
         <v>6</v>
@@ -5080,7 +5361,7 @@
       <c r="A81" s="5"/>
       <c r="B81" s="3"/>
       <c r="C81" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D81" s="3">
         <v>5</v>
@@ -5093,7 +5374,7 @@
       <c r="A82" s="5"/>
       <c r="B82" s="3"/>
       <c r="C82" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D82" s="3">
         <v>4</v>
@@ -5137,13 +5418,13 @@
     </row>
     <row r="86" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A86" s="28" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D86" s="15">
         <v>7</v>
@@ -5156,7 +5437,7 @@
       <c r="A87" s="5"/>
       <c r="B87" s="3"/>
       <c r="C87" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D87" s="3">
         <v>6</v>
@@ -5169,7 +5450,7 @@
       <c r="A88" s="5"/>
       <c r="B88" s="3"/>
       <c r="C88" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D88" s="3">
         <v>5</v>
@@ -5228,7 +5509,7 @@
         <v>36</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>226</v>
+        <v>311</v>
       </c>
       <c r="D93" s="3">
         <v>7</v>
@@ -5241,7 +5522,7 @@
       <c r="A94" s="5"/>
       <c r="B94" s="3"/>
       <c r="C94" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D94" s="3">
         <v>6</v>
@@ -5254,7 +5535,7 @@
       <c r="A95" s="5"/>
       <c r="B95" s="3"/>
       <c r="C95" s="4" t="s">
-        <v>225</v>
+        <v>312</v>
       </c>
       <c r="D95" s="3">
         <v>5</v>
@@ -5309,12 +5590,14 @@
     </row>
     <row r="100" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A100" s="28" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C100" s="14"/>
+      <c r="C100" s="14" t="s">
+        <v>307</v>
+      </c>
       <c r="D100" s="15">
         <v>7</v>
       </c>
@@ -5325,7 +5608,9 @@
     <row r="101" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
+      <c r="C101" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="D101" s="3">
         <v>6</v>
       </c>
@@ -5336,7 +5621,9 @@
     <row r="102" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
+      <c r="C102" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="D102" s="3">
         <v>5</v>
       </c>
@@ -5347,7 +5634,9 @@
     <row r="103" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
+      <c r="C103" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="D103" s="3">
         <v>4</v>
       </c>
@@ -5358,7 +5647,9 @@
     <row r="104" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
+      <c r="C104" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="D104" s="3">
         <v>3</v>
       </c>
@@ -5366,10 +5657,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
+      <c r="C105" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="D105" s="3">
         <v>2</v>
       </c>
@@ -5393,18 +5686,22 @@
       <c r="B107" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C107" s="4"/>
+      <c r="C107" s="40" t="s">
+        <v>305</v>
+      </c>
       <c r="D107" s="3">
         <v>7</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
+      <c r="C108" s="4" t="s">
+        <v>306</v>
+      </c>
       <c r="D108" s="3">
         <v>6</v>
       </c>
@@ -5412,15 +5709,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
+      <c r="C109" s="4" t="s">
+        <v>304</v>
+      </c>
       <c r="D109" s="3">
         <v>5</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
@@ -5472,7 +5771,9 @@
       <c r="B114" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C114" s="4"/>
+      <c r="C114" s="4" t="s">
+        <v>302</v>
+      </c>
       <c r="D114" s="3">
         <v>7</v>
       </c>
@@ -5483,7 +5784,9 @@
     <row r="115" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
+      <c r="C115" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="D115" s="3">
         <v>6</v>
       </c>
@@ -5494,7 +5797,9 @@
     <row r="116" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
+      <c r="C116" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="D116" s="3">
         <v>5</v>
       </c>
@@ -5502,10 +5807,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
+      <c r="C117" s="4" t="s">
+        <v>304</v>
+      </c>
       <c r="D117" s="3">
         <v>4</v>
       </c>
@@ -5548,12 +5855,14 @@
     </row>
     <row r="121" spans="1:5" ht="84.6" x14ac:dyDescent="0.3">
       <c r="A121" s="31" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C121" s="14"/>
+      <c r="C121" s="14" t="s">
+        <v>320</v>
+      </c>
       <c r="D121" s="15">
         <v>7</v>
       </c>
@@ -5564,7 +5873,9 @@
     <row r="122" spans="1:5" ht="84.6" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
+      <c r="C122" s="4" t="s">
+        <v>321</v>
+      </c>
       <c r="D122" s="3">
         <v>6</v>
       </c>
@@ -5575,7 +5886,9 @@
     <row r="123" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
+      <c r="C123" s="4" t="s">
+        <v>322</v>
+      </c>
       <c r="D123" s="3">
         <v>5</v>
       </c>
@@ -5586,7 +5899,9 @@
     <row r="124" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
+      <c r="C124" s="4" t="s">
+        <v>323</v>
+      </c>
       <c r="D124" s="3">
         <v>4</v>
       </c>
@@ -5632,7 +5947,9 @@
       <c r="B128" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C128" s="4"/>
+      <c r="C128" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="D128" s="3">
         <v>7</v>
       </c>
@@ -5643,7 +5960,9 @@
     <row r="129" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
+      <c r="C129" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="D129" s="3">
         <v>6</v>
       </c>
@@ -5654,7 +5973,9 @@
     <row r="130" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
+      <c r="C130" s="4" t="s">
+        <v>273</v>
+      </c>
       <c r="D130" s="3">
         <v>5</v>
       </c>
@@ -5665,7 +5986,9 @@
     <row r="131" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
+      <c r="C131" s="4" t="s">
+        <v>274</v>
+      </c>
       <c r="D131" s="3">
         <v>4</v>
       </c>
@@ -5711,7 +6034,9 @@
       <c r="B135" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C135" s="4"/>
+      <c r="C135" s="4" t="s">
+        <v>276</v>
+      </c>
       <c r="D135" s="3">
         <v>7</v>
       </c>
@@ -5722,7 +6047,9 @@
     <row r="136" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
+      <c r="C136" s="4" t="s">
+        <v>275</v>
+      </c>
       <c r="D136" s="3">
         <v>6</v>
       </c>
@@ -5733,7 +6060,9 @@
     <row r="137" spans="1:5" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
+      <c r="C137" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="D137" s="3">
         <v>5</v>
       </c>
@@ -5744,7 +6073,9 @@
     <row r="138" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
+      <c r="C138" s="4" t="s">
+        <v>278</v>
+      </c>
       <c r="D138" s="3">
         <v>4</v>
       </c>
@@ -5790,7 +6121,9 @@
       <c r="B142" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C142" s="4"/>
+      <c r="C142" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="D142" s="3">
         <v>7</v>
       </c>
@@ -5801,7 +6134,9 @@
     <row r="143" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
+      <c r="C143" s="4" t="s">
+        <v>280</v>
+      </c>
       <c r="D143" s="3">
         <v>6</v>
       </c>
@@ -5812,7 +6147,9 @@
     <row r="144" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
+      <c r="C144" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="D144" s="3">
         <v>5</v>
       </c>
@@ -5820,10 +6157,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
+      <c r="C145" s="4" t="s">
+        <v>282</v>
+      </c>
       <c r="D145" s="3">
         <v>4</v>
       </c>
@@ -5866,12 +6205,14 @@
     </row>
     <row r="149" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="28" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B149" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C149" s="14"/>
+      <c r="C149" s="14" t="s">
+        <v>283</v>
+      </c>
       <c r="D149" s="15">
         <v>7</v>
       </c>
@@ -5882,7 +6223,9 @@
     <row r="150" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
+      <c r="C150" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="D150" s="3">
         <v>6</v>
       </c>
@@ -5893,7 +6236,9 @@
     <row r="151" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
+      <c r="C151" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="D151" s="3">
         <v>5</v>
       </c>
@@ -5904,7 +6249,9 @@
     <row r="152" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
+      <c r="C152" s="4" t="s">
+        <v>286</v>
+      </c>
       <c r="D152" s="3">
         <v>4</v>
       </c>
@@ -5912,10 +6259,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
+      <c r="C153" s="4" t="s">
+        <v>287</v>
+      </c>
       <c r="D153" s="3">
         <v>3</v>
       </c>
@@ -5950,18 +6299,22 @@
       <c r="B156" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C156" s="35"/>
+      <c r="C156" s="35" t="s">
+        <v>325</v>
+      </c>
       <c r="D156" s="3">
         <v>7</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
+      <c r="C157" s="4" t="s">
+        <v>324</v>
+      </c>
       <c r="D157" s="3">
         <v>6</v>
       </c>
@@ -5977,7 +6330,7 @@
         <v>5</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -5999,7 +6352,7 @@
         <v>3</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -6029,7 +6382,9 @@
       <c r="B163" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C163" s="4"/>
+      <c r="C163" s="36" t="s">
+        <v>288</v>
+      </c>
       <c r="D163" s="3">
         <v>7</v>
       </c>
@@ -6040,7 +6395,9 @@
     <row r="164" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
+      <c r="C164" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="D164" s="3">
         <v>6</v>
       </c>
@@ -6051,7 +6408,9 @@
     <row r="165" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
+      <c r="C165" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="D165" s="3">
         <v>5</v>
       </c>
@@ -6059,10 +6418,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
+      <c r="C166" s="4" t="s">
+        <v>291</v>
+      </c>
       <c r="D166" s="3">
         <v>4</v>
       </c>
@@ -6105,23 +6466,27 @@
     </row>
     <row r="170" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A170" s="32" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B170" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C170" s="30"/>
+      <c r="C170" s="38" t="s">
+        <v>298</v>
+      </c>
       <c r="D170" s="29">
         <v>7</v>
       </c>
       <c r="E170" s="33" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
+      <c r="C171" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="D171" s="3">
         <v>6</v>
       </c>
@@ -6189,18 +6554,22 @@
       <c r="B177" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C177" s="4"/>
+      <c r="C177" s="20" t="s">
+        <v>301</v>
+      </c>
       <c r="D177" s="3">
         <v>7</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
+      <c r="C178" s="4" t="s">
+        <v>300</v>
+      </c>
       <c r="D178" s="3">
         <v>6</v>
       </c>

--- a/assets/Estandares de aprendizaje.xlsx
+++ b/assets/Estandares de aprendizaje.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193A467B-67AF-423E-B271-EC0FBCE5F1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD96723-0F6F-47EC-9A3B-10D86DE3CE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{88789523-4A40-4C66-814D-58F0B149FCB7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{88789523-4A40-4C66-814D-58F0B149FCB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Generalidades" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="325">
   <si>
     <t xml:space="preserve"> Construye su identidad al tomar conciencia de los aspectos que lo hacen único, cuando se reconoce a sí mismo a partir de sus características personales, culturales y sociales, y de sus logros, valorando el aporte de las familias en su formación personal. Se desenvuelve con agrado y confianza en diversos grupos. Selecciona y utiliza las estrategias más adecuadas para regular sus emociones y comportamiento, y comprende las razones de los comportamientos propios y de los otros. Argumenta su posición frente a situaciones de conflicto moral, considerando las intenciones de las personas involucradas, los principios éticos y las normas establecidas. Analiza las consecuencias de sus decisiones y se propone comportamientos en los que estén presentes criterios éticos. Se relaciona con igualdad o equidad y analiza críticamente situaciones de desigualdad de género en diferentes contextos. Demuestra respeto y cuidado por el otro en sus relaciones afectivas, y propone pautas para prevenir y protegerse de situaciones que afecten su integridad en relación a la salud sexual y reproductiva.</t>
   </si>
@@ -824,9 +824,6 @@
   </si>
   <si>
     <t>Sexto de primaria</t>
-  </si>
-  <si>
-    <t>Tercer de primaria</t>
   </si>
   <si>
     <t>Primero de primaria</t>
@@ -1813,7 +1810,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1823,10 +1820,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>257</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1834,19 +1831,19 @@
         <v>237</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1872,7 +1869,7 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1884,7 +1881,7 @@
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1928,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB01F179-59A0-46CE-A3FE-2E0EACE39A9F}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2004,7 +2001,7 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2018,7 +2015,7 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2026,19 +2023,19 @@
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2089,7 +2086,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="72.599999999999994" x14ac:dyDescent="0.3">
@@ -2187,7 +2184,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D9" s="3">
         <v>7</v>
@@ -2200,7 +2197,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D10" s="3">
         <v>6</v>
@@ -2213,7 +2210,7 @@
       <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D11" s="3">
         <v>5</v>
@@ -2226,7 +2223,7 @@
       <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
@@ -2239,7 +2236,7 @@
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -2363,7 +2360,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D23" s="3">
         <v>7</v>
@@ -2533,7 +2530,7 @@
         <v>28</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D37" s="15">
         <v>7</v>
@@ -2546,7 +2543,7 @@
       <c r="A38" s="5"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D38" s="3">
         <v>6</v>
@@ -2559,7 +2556,7 @@
       <c r="A39" s="5"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D39" s="3">
         <v>5</v>
@@ -2572,7 +2569,7 @@
       <c r="A40" s="5"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D40" s="3">
         <v>4</v>
@@ -3219,7 +3216,7 @@
         <v>36</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D93" s="3">
         <v>7</v>
@@ -3245,7 +3242,7 @@
       <c r="A95" s="5"/>
       <c r="B95" s="3"/>
       <c r="C95" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D95" s="3">
         <v>5</v>
@@ -3300,13 +3297,13 @@
     </row>
     <row r="100" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A100" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D100" s="15">
         <v>7</v>
@@ -3319,7 +3316,7 @@
       <c r="A101" s="5"/>
       <c r="B101" s="3"/>
       <c r="C101" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D101" s="3">
         <v>6</v>
@@ -3345,7 +3342,7 @@
       <c r="A103" s="5"/>
       <c r="B103" s="3"/>
       <c r="C103" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D103" s="3">
         <v>4</v>
@@ -3371,7 +3368,7 @@
       <c r="A105" s="5"/>
       <c r="B105" s="3"/>
       <c r="C105" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D105" s="3">
         <v>2</v>
@@ -3397,7 +3394,7 @@
         <v>38</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D107" s="3">
         <v>7</v>
@@ -3410,7 +3407,7 @@
       <c r="A108" s="5"/>
       <c r="B108" s="3"/>
       <c r="C108" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D108" s="3">
         <v>6</v>
@@ -3423,7 +3420,7 @@
       <c r="A109" s="5"/>
       <c r="B109" s="3"/>
       <c r="C109" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D109" s="3">
         <v>5</v>
@@ -3482,7 +3479,7 @@
         <v>39</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D114" s="3">
         <v>7</v>
@@ -3495,7 +3492,7 @@
       <c r="A115" s="5"/>
       <c r="B115" s="3"/>
       <c r="C115" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D115" s="3">
         <v>6</v>
@@ -3521,7 +3518,7 @@
       <c r="A117" s="5"/>
       <c r="B117" s="3"/>
       <c r="C117" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D117" s="3">
         <v>4</v>
@@ -3565,13 +3562,13 @@
     </row>
     <row r="121" spans="1:5" ht="84.6" x14ac:dyDescent="0.3">
       <c r="A121" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D121" s="15">
         <v>7</v>
@@ -3584,7 +3581,7 @@
       <c r="A122" s="5"/>
       <c r="B122" s="3"/>
       <c r="C122" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D122" s="3">
         <v>6</v>
@@ -3597,7 +3594,7 @@
       <c r="A123" s="5"/>
       <c r="B123" s="3"/>
       <c r="C123" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D123" s="3">
         <v>5</v>
@@ -3610,7 +3607,7 @@
       <c r="A124" s="5"/>
       <c r="B124" s="3"/>
       <c r="C124" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D124" s="3">
         <v>4</v>
@@ -3658,7 +3655,7 @@
         <v>41</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D128" s="3">
         <v>7</v>
@@ -3671,7 +3668,7 @@
       <c r="A129" s="5"/>
       <c r="B129" s="3"/>
       <c r="C129" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D129" s="3">
         <v>6</v>
@@ -3684,7 +3681,7 @@
       <c r="A130" s="5"/>
       <c r="B130" s="3"/>
       <c r="C130" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D130" s="3">
         <v>5</v>
@@ -3697,7 +3694,7 @@
       <c r="A131" s="5"/>
       <c r="B131" s="3"/>
       <c r="C131" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D131" s="3">
         <v>4</v>
@@ -3745,7 +3742,7 @@
         <v>42</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D135" s="3">
         <v>7</v>
@@ -3758,20 +3755,20 @@
       <c r="A136" s="5"/>
       <c r="B136" s="3"/>
       <c r="C136" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D136" s="3">
         <v>6</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="3"/>
       <c r="C137" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D137" s="3">
         <v>5</v>
@@ -3784,7 +3781,7 @@
       <c r="A138" s="5"/>
       <c r="B138" s="3"/>
       <c r="C138" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D138" s="3">
         <v>4</v>
@@ -3832,7 +3829,7 @@
         <v>43</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D142" s="3">
         <v>7</v>
@@ -3845,7 +3842,7 @@
       <c r="A143" s="5"/>
       <c r="B143" s="3"/>
       <c r="C143" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D143" s="3">
         <v>6</v>
@@ -3858,7 +3855,7 @@
       <c r="A144" s="5"/>
       <c r="B144" s="3"/>
       <c r="C144" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D144" s="3">
         <v>5</v>
@@ -3871,7 +3868,7 @@
       <c r="A145" s="5"/>
       <c r="B145" s="3"/>
       <c r="C145" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D145" s="3">
         <v>4</v>
@@ -3915,13 +3912,13 @@
     </row>
     <row r="149" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B149" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D149" s="15">
         <v>7</v>
@@ -3934,7 +3931,7 @@
       <c r="A150" s="5"/>
       <c r="B150" s="3"/>
       <c r="C150" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D150" s="3">
         <v>6</v>
@@ -3947,7 +3944,7 @@
       <c r="A151" s="5"/>
       <c r="B151" s="3"/>
       <c r="C151" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D151" s="3">
         <v>5</v>
@@ -3960,7 +3957,7 @@
       <c r="A152" s="5"/>
       <c r="B152" s="3"/>
       <c r="C152" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D152" s="3">
         <v>4</v>
@@ -3973,7 +3970,7 @@
       <c r="A153" s="5"/>
       <c r="B153" s="3"/>
       <c r="C153" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D153" s="3">
         <v>3</v>
@@ -4010,20 +4007,20 @@
         <v>45</v>
       </c>
       <c r="C156" s="35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D156" s="3">
         <v>7</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="3"/>
       <c r="C157" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D157" s="3">
         <v>6</v>
@@ -4040,7 +4037,7 @@
         <v>5</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -4062,7 +4059,7 @@
         <v>3</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -4093,7 +4090,7 @@
         <v>46</v>
       </c>
       <c r="C163" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D163" s="3">
         <v>7</v>
@@ -4106,7 +4103,7 @@
       <c r="A164" s="5"/>
       <c r="B164" s="3"/>
       <c r="C164" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D164" s="3">
         <v>6</v>
@@ -4119,7 +4116,7 @@
       <c r="A165" s="5"/>
       <c r="B165" s="3"/>
       <c r="C165" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D165" s="3">
         <v>5</v>
@@ -4132,7 +4129,7 @@
       <c r="A166" s="5"/>
       <c r="B166" s="3"/>
       <c r="C166" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D166" s="3">
         <v>4</v>
@@ -4176,26 +4173,26 @@
     </row>
     <row r="170" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A170" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B170" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C170" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D170" s="29">
         <v>7</v>
       </c>
       <c r="E170" s="39" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="3"/>
       <c r="C171" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D171" s="3">
         <v>6</v>
@@ -4262,10 +4259,10 @@
     <row r="177" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D177" s="3">
         <v>7</v>
@@ -4278,7 +4275,7 @@
       <c r="A178" s="5"/>
       <c r="B178" s="3"/>
       <c r="C178" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D178" s="3">
         <v>6</v>
@@ -4355,8 +4352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A632A6FB-2A72-4B1E-B1D9-394BB1DAB718}">
   <dimension ref="A1:E184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4381,12 +4378,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>1</v>
@@ -4479,7 +4476,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D9" s="3">
         <v>7</v>
@@ -4492,7 +4489,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D10" s="3">
         <v>6</v>
@@ -4505,7 +4502,7 @@
       <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D11" s="3">
         <v>5</v>
@@ -4518,7 +4515,7 @@
       <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
@@ -4531,7 +4528,7 @@
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -4653,7 +4650,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D23" s="3">
         <v>7</v>
@@ -4738,7 +4735,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D30" s="3">
         <v>7</v>
@@ -4751,7 +4748,7 @@
       <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D31" s="3">
         <v>6</v>
@@ -4823,7 +4820,7 @@
         <v>28</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D37" s="29">
         <v>7</v>
@@ -4836,7 +4833,7 @@
       <c r="A38" s="5"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D38" s="3">
         <v>6</v>
@@ -4849,7 +4846,7 @@
       <c r="A39" s="5"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D39" s="3">
         <v>5</v>
@@ -4862,7 +4859,7 @@
       <c r="A40" s="5"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D40" s="3">
         <v>4</v>
@@ -5509,7 +5506,7 @@
         <v>36</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D93" s="3">
         <v>7</v>
@@ -5535,7 +5532,7 @@
       <c r="A95" s="5"/>
       <c r="B95" s="3"/>
       <c r="C95" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D95" s="3">
         <v>5</v>
@@ -5590,13 +5587,13 @@
     </row>
     <row r="100" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A100" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D100" s="15">
         <v>7</v>
@@ -5609,7 +5606,7 @@
       <c r="A101" s="5"/>
       <c r="B101" s="3"/>
       <c r="C101" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D101" s="3">
         <v>6</v>
@@ -5635,7 +5632,7 @@
       <c r="A103" s="5"/>
       <c r="B103" s="3"/>
       <c r="C103" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D103" s="3">
         <v>4</v>
@@ -5661,7 +5658,7 @@
       <c r="A105" s="5"/>
       <c r="B105" s="3"/>
       <c r="C105" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D105" s="3">
         <v>2</v>
@@ -5687,7 +5684,7 @@
         <v>38</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D107" s="3">
         <v>7</v>
@@ -5700,7 +5697,7 @@
       <c r="A108" s="5"/>
       <c r="B108" s="3"/>
       <c r="C108" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D108" s="3">
         <v>6</v>
@@ -5713,7 +5710,7 @@
       <c r="A109" s="5"/>
       <c r="B109" s="3"/>
       <c r="C109" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D109" s="3">
         <v>5</v>
@@ -5772,7 +5769,7 @@
         <v>39</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D114" s="3">
         <v>7</v>
@@ -5785,7 +5782,7 @@
       <c r="A115" s="5"/>
       <c r="B115" s="3"/>
       <c r="C115" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D115" s="3">
         <v>6</v>
@@ -5811,7 +5808,7 @@
       <c r="A117" s="5"/>
       <c r="B117" s="3"/>
       <c r="C117" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D117" s="3">
         <v>4</v>
@@ -5855,13 +5852,13 @@
     </row>
     <row r="121" spans="1:5" ht="84.6" x14ac:dyDescent="0.3">
       <c r="A121" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D121" s="15">
         <v>7</v>
@@ -5874,7 +5871,7 @@
       <c r="A122" s="5"/>
       <c r="B122" s="3"/>
       <c r="C122" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D122" s="3">
         <v>6</v>
@@ -5887,7 +5884,7 @@
       <c r="A123" s="5"/>
       <c r="B123" s="3"/>
       <c r="C123" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D123" s="3">
         <v>5</v>
@@ -5900,7 +5897,7 @@
       <c r="A124" s="5"/>
       <c r="B124" s="3"/>
       <c r="C124" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D124" s="3">
         <v>4</v>
@@ -5948,7 +5945,7 @@
         <v>41</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D128" s="3">
         <v>7</v>
@@ -5961,7 +5958,7 @@
       <c r="A129" s="5"/>
       <c r="B129" s="3"/>
       <c r="C129" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D129" s="3">
         <v>6</v>
@@ -5974,7 +5971,7 @@
       <c r="A130" s="5"/>
       <c r="B130" s="3"/>
       <c r="C130" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D130" s="3">
         <v>5</v>
@@ -5987,7 +5984,7 @@
       <c r="A131" s="5"/>
       <c r="B131" s="3"/>
       <c r="C131" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D131" s="3">
         <v>4</v>
@@ -6035,7 +6032,7 @@
         <v>42</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D135" s="3">
         <v>7</v>
@@ -6048,7 +6045,7 @@
       <c r="A136" s="5"/>
       <c r="B136" s="3"/>
       <c r="C136" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D136" s="3">
         <v>6</v>
@@ -6061,7 +6058,7 @@
       <c r="A137" s="5"/>
       <c r="B137" s="3"/>
       <c r="C137" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D137" s="3">
         <v>5</v>
@@ -6074,7 +6071,7 @@
       <c r="A138" s="5"/>
       <c r="B138" s="3"/>
       <c r="C138" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D138" s="3">
         <v>4</v>
@@ -6122,7 +6119,7 @@
         <v>43</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D142" s="3">
         <v>7</v>
@@ -6135,7 +6132,7 @@
       <c r="A143" s="5"/>
       <c r="B143" s="3"/>
       <c r="C143" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D143" s="3">
         <v>6</v>
@@ -6148,7 +6145,7 @@
       <c r="A144" s="5"/>
       <c r="B144" s="3"/>
       <c r="C144" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D144" s="3">
         <v>5</v>
@@ -6161,7 +6158,7 @@
       <c r="A145" s="5"/>
       <c r="B145" s="3"/>
       <c r="C145" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D145" s="3">
         <v>4</v>
@@ -6205,13 +6202,13 @@
     </row>
     <row r="149" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B149" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D149" s="15">
         <v>7</v>
@@ -6224,7 +6221,7 @@
       <c r="A150" s="5"/>
       <c r="B150" s="3"/>
       <c r="C150" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D150" s="3">
         <v>6</v>
@@ -6237,7 +6234,7 @@
       <c r="A151" s="5"/>
       <c r="B151" s="3"/>
       <c r="C151" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D151" s="3">
         <v>5</v>
@@ -6250,7 +6247,7 @@
       <c r="A152" s="5"/>
       <c r="B152" s="3"/>
       <c r="C152" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D152" s="3">
         <v>4</v>
@@ -6263,7 +6260,7 @@
       <c r="A153" s="5"/>
       <c r="B153" s="3"/>
       <c r="C153" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D153" s="3">
         <v>3</v>
@@ -6300,20 +6297,20 @@
         <v>45</v>
       </c>
       <c r="C156" s="35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D156" s="3">
         <v>7</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="3"/>
       <c r="C157" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D157" s="3">
         <v>6</v>
@@ -6330,7 +6327,7 @@
         <v>5</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -6352,7 +6349,7 @@
         <v>3</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -6383,7 +6380,7 @@
         <v>46</v>
       </c>
       <c r="C163" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D163" s="3">
         <v>7</v>
@@ -6396,7 +6393,7 @@
       <c r="A164" s="5"/>
       <c r="B164" s="3"/>
       <c r="C164" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D164" s="3">
         <v>6</v>
@@ -6409,7 +6406,7 @@
       <c r="A165" s="5"/>
       <c r="B165" s="3"/>
       <c r="C165" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D165" s="3">
         <v>5</v>
@@ -6422,7 +6419,7 @@
       <c r="A166" s="5"/>
       <c r="B166" s="3"/>
       <c r="C166" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D166" s="3">
         <v>4</v>
@@ -6466,26 +6463,26 @@
     </row>
     <row r="170" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A170" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B170" s="30" t="s">
         <v>47</v>
       </c>
       <c r="C170" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D170" s="29">
         <v>7</v>
       </c>
       <c r="E170" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="3"/>
       <c r="C171" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D171" s="3">
         <v>6</v>
@@ -6555,7 +6552,7 @@
         <v>48</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D177" s="3">
         <v>7</v>
@@ -6568,7 +6565,7 @@
       <c r="A178" s="5"/>
       <c r="B178" s="3"/>
       <c r="C178" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D178" s="3">
         <v>6</v>
